--- a/lab5/1/NEWDATA/nMOS_exp1.xlsx
+++ b/lab5/1/NEWDATA/nMOS_exp1.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="nMOS_exp1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2439,11 +2442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="63404672"/>
-        <c:axId val="63403136"/>
+        <c:axId val="68628864"/>
+        <c:axId val="68630400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63404672"/>
+        <c:axId val="68628864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,13 +2456,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63403136"/>
+        <c:crossAx val="68630400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63403136"/>
+        <c:axId val="68630400"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2469,7 +2473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63404672"/>
+        <c:crossAx val="68628864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2495,16 +2499,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2524,6 +2528,2433 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="pMOS_exp1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>I_PMOS</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>5</v>
+          </cell>
+          <cell r="B2">
+            <v>1.815E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>4.9824999999999999</v>
+          </cell>
+          <cell r="B3">
+            <v>1.8029999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>4.9675000000000002</v>
+          </cell>
+          <cell r="B4">
+            <v>1.7930000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4.95</v>
+          </cell>
+          <cell r="B5">
+            <v>1.781E-3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4.9325000000000001</v>
+          </cell>
+          <cell r="B6">
+            <v>1.7700000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>4.9175000000000004</v>
+          </cell>
+          <cell r="B7">
+            <v>1.7600000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="B8">
+            <v>1.7489999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>4.8825000000000003</v>
+          </cell>
+          <cell r="B9">
+            <v>1.737E-3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>4.8674999999999997</v>
+          </cell>
+          <cell r="B10">
+            <v>1.727E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>4.8499999999999996</v>
+          </cell>
+          <cell r="B11">
+            <v>1.7160000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>4.8324999999999996</v>
+          </cell>
+          <cell r="B12">
+            <v>1.7049999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>4.8174999999999999</v>
+          </cell>
+          <cell r="B13">
+            <v>1.6949999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>4.8</v>
+          </cell>
+          <cell r="B14">
+            <v>1.683E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>4.7824999999999998</v>
+          </cell>
+          <cell r="B15">
+            <v>1.6720000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>4.7675000000000001</v>
+          </cell>
+          <cell r="B16">
+            <v>1.6620000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>4.75</v>
+          </cell>
+          <cell r="B17">
+            <v>1.6509999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>4.7324999999999999</v>
+          </cell>
+          <cell r="B18">
+            <v>1.639E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>4.7175000000000002</v>
+          </cell>
+          <cell r="B19">
+            <v>1.6299999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>4.7</v>
+          </cell>
+          <cell r="B20">
+            <v>1.6180000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>4.6825000000000001</v>
+          </cell>
+          <cell r="B21">
+            <v>1.6069999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>4.6675000000000004</v>
+          </cell>
+          <cell r="B22">
+            <v>1.5969999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>4.6500000000000004</v>
+          </cell>
+          <cell r="B23">
+            <v>1.586E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>4.6325000000000003</v>
+          </cell>
+          <cell r="B24">
+            <v>1.575E-3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>4.6174999999999997</v>
+          </cell>
+          <cell r="B25">
+            <v>1.565E-3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="B26">
+            <v>1.554E-3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>4.5824999999999996</v>
+          </cell>
+          <cell r="B27">
+            <v>1.5430000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>4.5674999999999999</v>
+          </cell>
+          <cell r="B28">
+            <v>1.534E-3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>4.55</v>
+          </cell>
+          <cell r="B29">
+            <v>1.5219999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>4.5324999999999998</v>
+          </cell>
+          <cell r="B30">
+            <v>1.511E-3</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>4.5175000000000001</v>
+          </cell>
+          <cell r="B31">
+            <v>1.5020000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>4.5</v>
+          </cell>
+          <cell r="B32">
+            <v>1.4909999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>4.4824999999999999</v>
+          </cell>
+          <cell r="B33">
+            <v>1.48E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>4.4675000000000002</v>
+          </cell>
+          <cell r="B34">
+            <v>1.47E-3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>4.45</v>
+          </cell>
+          <cell r="B35">
+            <v>1.459E-3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>4.4325000000000001</v>
+          </cell>
+          <cell r="B36">
+            <v>1.449E-3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>4.4175000000000004</v>
+          </cell>
+          <cell r="B37">
+            <v>1.439E-3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="B38">
+            <v>1.428E-3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>4.3825000000000003</v>
+          </cell>
+          <cell r="B39">
+            <v>1.418E-3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>4.3674999999999997</v>
+          </cell>
+          <cell r="B40">
+            <v>1.408E-3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>4.3499999999999996</v>
+          </cell>
+          <cell r="B41">
+            <v>1.3979999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>4.3324999999999996</v>
+          </cell>
+          <cell r="B42">
+            <v>1.387E-3</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>4.3174999999999999</v>
+          </cell>
+          <cell r="B43">
+            <v>1.3780000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>4.3</v>
+          </cell>
+          <cell r="B44">
+            <v>1.3669999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>4.2824999999999998</v>
+          </cell>
+          <cell r="B45">
+            <v>1.3569999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>4.2675000000000001</v>
+          </cell>
+          <cell r="B46">
+            <v>1.3470000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>4.25</v>
+          </cell>
+          <cell r="B47">
+            <v>1.3370000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>4.2324999999999999</v>
+          </cell>
+          <cell r="B48">
+            <v>1.3259999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>4.2175000000000002</v>
+          </cell>
+          <cell r="B49">
+            <v>1.317E-3</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>4.2</v>
+          </cell>
+          <cell r="B50">
+            <v>1.307E-3</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>4.1825000000000001</v>
+          </cell>
+          <cell r="B51">
+            <v>1.2960000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>4.1675000000000004</v>
+          </cell>
+          <cell r="B52">
+            <v>1.2869999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>4.1500000000000004</v>
+          </cell>
+          <cell r="B53">
+            <v>1.2769999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>4.1325000000000003</v>
+          </cell>
+          <cell r="B54">
+            <v>1.266E-3</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>4.1174999999999997</v>
+          </cell>
+          <cell r="B55">
+            <v>1.2570000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>4.0999999999999996</v>
+          </cell>
+          <cell r="B56">
+            <v>1.2470000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>4.0824999999999996</v>
+          </cell>
+          <cell r="B57">
+            <v>1.237E-3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>4.0674999999999999</v>
+          </cell>
+          <cell r="B58">
+            <v>1.227E-3</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>4.05</v>
+          </cell>
+          <cell r="B59">
+            <v>1.217E-3</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>4.0324999999999998</v>
+          </cell>
+          <cell r="B60">
+            <v>1.207E-3</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>4.0175000000000001</v>
+          </cell>
+          <cell r="B61">
+            <v>1.1980000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>4</v>
+          </cell>
+          <cell r="B62">
+            <v>1.175E-3</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>3.9830000000000001</v>
+          </cell>
+          <cell r="B63">
+            <v>1.165E-3</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>3.9670000000000001</v>
+          </cell>
+          <cell r="B64">
+            <v>1.1559999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>3.95</v>
+          </cell>
+          <cell r="B65">
+            <v>1.1460000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>3.9329999999999998</v>
+          </cell>
+          <cell r="B66">
+            <v>1.1360000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>3.9169999999999998</v>
+          </cell>
+          <cell r="B67">
+            <v>1.127E-3</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>3.9</v>
+          </cell>
+          <cell r="B68">
+            <v>1.1169999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>3.883</v>
+          </cell>
+          <cell r="B69">
+            <v>1.108E-3</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>3.867</v>
+          </cell>
+          <cell r="B70">
+            <v>1.0989999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>3.85</v>
+          </cell>
+          <cell r="B71">
+            <v>1.0889999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>3.8330000000000002</v>
+          </cell>
+          <cell r="B72">
+            <v>1.08E-3</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>3.8170000000000002</v>
+          </cell>
+          <cell r="B73">
+            <v>1.07E-3</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>3.8</v>
+          </cell>
+          <cell r="B74">
+            <v>1.0610000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>3.7829999999999999</v>
+          </cell>
+          <cell r="B75">
+            <v>1.0510000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>3.7669999999999999</v>
+          </cell>
+          <cell r="B76">
+            <v>1.0430000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>3.75</v>
+          </cell>
+          <cell r="B77">
+            <v>1.0330000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>3.7330000000000001</v>
+          </cell>
+          <cell r="B78">
+            <v>1.024E-3</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>3.7170000000000001</v>
+          </cell>
+          <cell r="B79">
+            <v>1.0150000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>3.7</v>
+          </cell>
+          <cell r="B80">
+            <v>1.0059999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>3.6829999999999998</v>
+          </cell>
+          <cell r="B81">
+            <v>9.9700000000000006E-4</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>3.6669999999999998</v>
+          </cell>
+          <cell r="B82">
+            <v>9.8799999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>3.65</v>
+          </cell>
+          <cell r="B83">
+            <v>9.7799999999999992E-4</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>3.633</v>
+          </cell>
+          <cell r="B84">
+            <v>9.6900000000000003E-4</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>3.617</v>
+          </cell>
+          <cell r="B85">
+            <v>9.6000000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>3.6</v>
+          </cell>
+          <cell r="B86">
+            <v>9.5100000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>3.5830000000000002</v>
+          </cell>
+          <cell r="B87">
+            <v>9.4200000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>3.5670000000000002</v>
+          </cell>
+          <cell r="B88">
+            <v>9.3300000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>3.55</v>
+          </cell>
+          <cell r="B89">
+            <v>9.2400000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>3.5329999999999999</v>
+          </cell>
+          <cell r="B90">
+            <v>9.1500000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>3.5169999999999999</v>
+          </cell>
+          <cell r="B91">
+            <v>9.0600000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>3.5</v>
+          </cell>
+          <cell r="B92">
+            <v>8.9700000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>3.4830000000000001</v>
+          </cell>
+          <cell r="B93">
+            <v>8.8800000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>3.4670000000000001</v>
+          </cell>
+          <cell r="B94">
+            <v>8.8000000000000003E-4</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>3.45</v>
+          </cell>
+          <cell r="B95">
+            <v>8.7000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>3.4329999999999998</v>
+          </cell>
+          <cell r="B96">
+            <v>8.6200000000000003E-4</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>3.4169999999999998</v>
+          </cell>
+          <cell r="B97">
+            <v>8.5300000000000003E-4</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>3.4</v>
+          </cell>
+          <cell r="B98">
+            <v>8.4400000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>3.383</v>
+          </cell>
+          <cell r="B99">
+            <v>8.3500000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>3.367</v>
+          </cell>
+          <cell r="B100">
+            <v>8.2700000000000004E-4</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>3.35</v>
+          </cell>
+          <cell r="B101">
+            <v>8.1800000000000004E-4</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>3.3330000000000002</v>
+          </cell>
+          <cell r="B102">
+            <v>8.0999999999999996E-4</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>3.3170000000000002</v>
+          </cell>
+          <cell r="B103">
+            <v>8.0099999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>3.3</v>
+          </cell>
+          <cell r="B104">
+            <v>7.9199999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>3.2829999999999999</v>
+          </cell>
+          <cell r="B105">
+            <v>7.8399999999999997E-4</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>3.2669999999999999</v>
+          </cell>
+          <cell r="B106">
+            <v>7.7499999999999997E-4</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>3.25</v>
+          </cell>
+          <cell r="B107">
+            <v>7.6599999999999997E-4</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>3.2330000000000001</v>
+          </cell>
+          <cell r="B108">
+            <v>7.5799999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>3.2170000000000001</v>
+          </cell>
+          <cell r="B109">
+            <v>7.5000000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>3.2</v>
+          </cell>
+          <cell r="B110">
+            <v>7.4100000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>3.1829999999999998</v>
+          </cell>
+          <cell r="B111">
+            <v>7.3300000000000004E-4</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>3.1669999999999998</v>
+          </cell>
+          <cell r="B112">
+            <v>7.2400000000000003E-4</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>3.15</v>
+          </cell>
+          <cell r="B113">
+            <v>7.1599999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>3.133</v>
+          </cell>
+          <cell r="B114">
+            <v>7.0699999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>3.117</v>
+          </cell>
+          <cell r="B115">
+            <v>6.9899999999999997E-4</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>3.1</v>
+          </cell>
+          <cell r="B116">
+            <v>6.9099999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>3.0830000000000002</v>
+          </cell>
+          <cell r="B117">
+            <v>6.8300000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>3.0670000000000002</v>
+          </cell>
+          <cell r="B118">
+            <v>6.7500000000000004E-4</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>3.05</v>
+          </cell>
+          <cell r="B119">
+            <v>6.6600000000000003E-4</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>3.0329999999999999</v>
+          </cell>
+          <cell r="B120">
+            <v>6.5799999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>3.0169999999999999</v>
+          </cell>
+          <cell r="B121">
+            <v>6.4999999999999997E-4</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>3</v>
+          </cell>
+          <cell r="B122">
+            <v>6.4199999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>2.9830000000000001</v>
+          </cell>
+          <cell r="B123">
+            <v>6.3299999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>2.9670000000000001</v>
+          </cell>
+          <cell r="B124">
+            <v>6.2600000000000004E-4</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>2.95</v>
+          </cell>
+          <cell r="B125">
+            <v>6.1700000000000004E-4</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>2.9329999999999998</v>
+          </cell>
+          <cell r="B126">
+            <v>6.0899999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>2.9169999999999998</v>
+          </cell>
+          <cell r="B127">
+            <v>6.02E-4</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>2.9</v>
+          </cell>
+          <cell r="B128">
+            <v>5.9400000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>2.883</v>
+          </cell>
+          <cell r="B129">
+            <v>5.8600000000000004E-4</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>2.867</v>
+          </cell>
+          <cell r="B130">
+            <v>5.7899999999999998E-4</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>2.85</v>
+          </cell>
+          <cell r="B131">
+            <v>5.71E-4</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>2.8330000000000002</v>
+          </cell>
+          <cell r="B132">
+            <v>5.6300000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>2.8170000000000002</v>
+          </cell>
+          <cell r="B133">
+            <v>5.5599999999999996E-4</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>2.8</v>
+          </cell>
+          <cell r="B134">
+            <v>5.4799999999999998E-4</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>2.7829999999999999</v>
+          </cell>
+          <cell r="B135">
+            <v>5.4100000000000003E-4</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>2.7669999999999999</v>
+          </cell>
+          <cell r="B136">
+            <v>5.3300000000000005E-4</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>2.75</v>
+          </cell>
+          <cell r="B137">
+            <v>5.2599999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>2.7330000000000001</v>
+          </cell>
+          <cell r="B138">
+            <v>5.1800000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>2.7170000000000001</v>
+          </cell>
+          <cell r="B139">
+            <v>5.1099999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>2.7</v>
+          </cell>
+          <cell r="B140">
+            <v>5.0299999999999997E-4</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>2.6829999999999998</v>
+          </cell>
+          <cell r="B141">
+            <v>4.9600000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>2.6669999999999998</v>
+          </cell>
+          <cell r="B142">
+            <v>4.8899999999999996E-4</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>2.65</v>
+          </cell>
+          <cell r="B143">
+            <v>4.8099999999999998E-4</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>2.633</v>
+          </cell>
+          <cell r="B144">
+            <v>4.7399999999999997E-4</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>2.617</v>
+          </cell>
+          <cell r="B145">
+            <v>4.6700000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>2.6</v>
+          </cell>
+          <cell r="B146">
+            <v>4.6000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>2.5830000000000002</v>
+          </cell>
+          <cell r="B147">
+            <v>4.5300000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>2.5670000000000002</v>
+          </cell>
+          <cell r="B148">
+            <v>4.46E-4</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>2.5499999999999998</v>
+          </cell>
+          <cell r="B149">
+            <v>4.3800000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>2.5329999999999999</v>
+          </cell>
+          <cell r="B150">
+            <v>4.3100000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>2.5169999999999999</v>
+          </cell>
+          <cell r="B151">
+            <v>4.2499999999999998E-4</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>2.5</v>
+          </cell>
+          <cell r="B152">
+            <v>4.1800000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>2.4830000000000001</v>
+          </cell>
+          <cell r="B153">
+            <v>4.1100000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>2.4670000000000001</v>
+          </cell>
+          <cell r="B154">
+            <v>4.0400000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>2.4500000000000002</v>
+          </cell>
+          <cell r="B155">
+            <v>3.9800000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>2.4329999999999998</v>
+          </cell>
+          <cell r="B156">
+            <v>3.9100000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>2.4169999999999998</v>
+          </cell>
+          <cell r="B157">
+            <v>3.8400000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>2.4</v>
+          </cell>
+          <cell r="B158">
+            <v>3.77E-4</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>2.383</v>
+          </cell>
+          <cell r="B159">
+            <v>3.7100000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>2.367</v>
+          </cell>
+          <cell r="B160">
+            <v>3.6400000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>2.35</v>
+          </cell>
+          <cell r="B161">
+            <v>3.57E-4</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>2.3330000000000002</v>
+          </cell>
+          <cell r="B162">
+            <v>3.5100000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>2.3170000000000002</v>
+          </cell>
+          <cell r="B163">
+            <v>3.4400000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="B164">
+            <v>3.3799999999999998E-4</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>2.2829999999999999</v>
+          </cell>
+          <cell r="B165">
+            <v>3.3100000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>2.2669999999999999</v>
+          </cell>
+          <cell r="B166">
+            <v>3.2499999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>2.25</v>
+          </cell>
+          <cell r="B167">
+            <v>3.19E-4</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>2.2330000000000001</v>
+          </cell>
+          <cell r="B168">
+            <v>3.1199999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>2.2170000000000001</v>
+          </cell>
+          <cell r="B169">
+            <v>3.0600000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="B170">
+            <v>2.9999999999999997E-4</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>2.1829999999999998</v>
+          </cell>
+          <cell r="B171">
+            <v>2.9300000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>2.1669999999999998</v>
+          </cell>
+          <cell r="B172">
+            <v>2.8800000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>2.15</v>
+          </cell>
+          <cell r="B173">
+            <v>2.8200000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>2.133</v>
+          </cell>
+          <cell r="B174">
+            <v>2.7599999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>2.117</v>
+          </cell>
+          <cell r="B175">
+            <v>2.7099999999999997E-4</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>2.1</v>
+          </cell>
+          <cell r="B176">
+            <v>2.6499999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>2.0830000000000002</v>
+          </cell>
+          <cell r="B177">
+            <v>2.5799999999999998E-4</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>2.0670000000000002</v>
+          </cell>
+          <cell r="B178">
+            <v>2.5300000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>2.0499999999999998</v>
+          </cell>
+          <cell r="B179">
+            <v>2.4600000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>2.0329999999999999</v>
+          </cell>
+          <cell r="B180">
+            <v>2.4000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>2.0169999999999999</v>
+          </cell>
+          <cell r="B181">
+            <v>2.3499999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>2</v>
+          </cell>
+          <cell r="B182">
+            <v>2.2800000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>1.9835</v>
+          </cell>
+          <cell r="B183">
+            <v>2.23E-4</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>1.9664999999999999</v>
+          </cell>
+          <cell r="B184">
+            <v>2.1800000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>1.95</v>
+          </cell>
+          <cell r="B185">
+            <v>2.13E-4</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>1.9335</v>
+          </cell>
+          <cell r="B186">
+            <v>2.0699999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>1.9165000000000001</v>
+          </cell>
+          <cell r="B187">
+            <v>2.02E-4</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>1.9</v>
+          </cell>
+          <cell r="B188">
+            <v>1.9699999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>1.8835</v>
+          </cell>
+          <cell r="B189">
+            <v>1.9100000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>1.8665</v>
+          </cell>
+          <cell r="B190">
+            <v>1.8599999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>1.85</v>
+          </cell>
+          <cell r="B191">
+            <v>1.8100000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192">
+            <v>1.8334999999999999</v>
+          </cell>
+          <cell r="B192">
+            <v>1.76E-4</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193">
+            <v>1.8165</v>
+          </cell>
+          <cell r="B193">
+            <v>1.7100000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194">
+            <v>1.8</v>
+          </cell>
+          <cell r="B194">
+            <v>1.66E-4</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195">
+            <v>1.7835000000000001</v>
+          </cell>
+          <cell r="B195">
+            <v>1.6100000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196">
+            <v>1.7665</v>
+          </cell>
+          <cell r="B196">
+            <v>1.56E-4</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197">
+            <v>1.75</v>
+          </cell>
+          <cell r="B197">
+            <v>1.5100000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198">
+            <v>1.7335</v>
+          </cell>
+          <cell r="B198">
+            <v>1.47E-4</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>1.7164999999999999</v>
+          </cell>
+          <cell r="B199">
+            <v>1.4200000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200">
+            <v>1.7</v>
+          </cell>
+          <cell r="B200">
+            <v>1.3799999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201">
+            <v>1.6835</v>
+          </cell>
+          <cell r="B201">
+            <v>1.3300000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202">
+            <v>1.6665000000000001</v>
+          </cell>
+          <cell r="B202">
+            <v>1.2799999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203">
+            <v>1.65</v>
+          </cell>
+          <cell r="B203">
+            <v>1.2400000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204">
+            <v>1.6335</v>
+          </cell>
+          <cell r="B204">
+            <v>1.2E-4</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205">
+            <v>1.6165</v>
+          </cell>
+          <cell r="B205">
+            <v>1.15E-4</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206">
+            <v>1.6</v>
+          </cell>
+          <cell r="B206">
+            <v>1.11E-4</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207">
+            <v>1.5834999999999999</v>
+          </cell>
+          <cell r="B207">
+            <v>1.06E-4</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208">
+            <v>1.5665</v>
+          </cell>
+          <cell r="B208">
+            <v>1.02E-4</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209">
+            <v>1.55</v>
+          </cell>
+          <cell r="B209">
+            <v>1.027E-4</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210">
+            <v>1.5335000000000001</v>
+          </cell>
+          <cell r="B210">
+            <v>9.87E-5</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211">
+            <v>1.5165</v>
+          </cell>
+          <cell r="B211">
+            <v>9.4599999999999996E-5</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212">
+            <v>1.5</v>
+          </cell>
+          <cell r="B212">
+            <v>9.0699999999999996E-5</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>1.4835</v>
+          </cell>
+          <cell r="B213">
+            <v>8.6899999999999998E-5</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214">
+            <v>1.4664999999999999</v>
+          </cell>
+          <cell r="B214">
+            <v>8.2999999999999998E-5</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215">
+            <v>1.45</v>
+          </cell>
+          <cell r="B215">
+            <v>7.9499999999999994E-5</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216">
+            <v>1.4335</v>
+          </cell>
+          <cell r="B216">
+            <v>7.6000000000000004E-5</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217">
+            <v>1.4165000000000001</v>
+          </cell>
+          <cell r="B217">
+            <v>7.2399999999999998E-5</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218">
+            <v>1.4</v>
+          </cell>
+          <cell r="B218">
+            <v>6.8999999999999997E-5</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219">
+            <v>1.3835</v>
+          </cell>
+          <cell r="B219">
+            <v>6.5699999999999998E-5</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220">
+            <v>1.3665</v>
+          </cell>
+          <cell r="B220">
+            <v>6.2299999999999996E-5</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221">
+            <v>1.35</v>
+          </cell>
+          <cell r="B221">
+            <v>5.91E-5</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222">
+            <v>1.3334999999999999</v>
+          </cell>
+          <cell r="B222">
+            <v>5.5999999999999999E-5</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223">
+            <v>1.3165</v>
+          </cell>
+          <cell r="B223">
+            <v>5.3000000000000001E-5</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224">
+            <v>1.3</v>
+          </cell>
+          <cell r="B224">
+            <v>5.0000000000000002E-5</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225">
+            <v>1.2835000000000001</v>
+          </cell>
+          <cell r="B225">
+            <v>4.7200000000000002E-5</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226">
+            <v>1.2665</v>
+          </cell>
+          <cell r="B226">
+            <v>4.4299999999999999E-5</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227">
+            <v>1.25</v>
+          </cell>
+          <cell r="B227">
+            <v>4.1600000000000002E-5</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228">
+            <v>1.2335</v>
+          </cell>
+          <cell r="B228">
+            <v>3.9100000000000002E-5</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229">
+            <v>1.2164999999999999</v>
+          </cell>
+          <cell r="B229">
+            <v>3.65E-5</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230">
+            <v>1.2</v>
+          </cell>
+          <cell r="B230">
+            <v>3.4100000000000002E-5</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231">
+            <v>1.1835</v>
+          </cell>
+          <cell r="B231">
+            <v>3.18E-5</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232">
+            <v>1.1665000000000001</v>
+          </cell>
+          <cell r="B232">
+            <v>2.9499999999999999E-5</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="A233">
+            <v>1.1499999999999999</v>
+          </cell>
+          <cell r="B233">
+            <v>2.73E-5</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="A234">
+            <v>1.1335</v>
+          </cell>
+          <cell r="B234">
+            <v>2.5299999999999998E-5</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="A235">
+            <v>1.1165</v>
+          </cell>
+          <cell r="B235">
+            <v>2.3300000000000001E-5</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="A236">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="B236">
+            <v>2.1500000000000001E-5</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237">
+            <v>1.0834999999999999</v>
+          </cell>
+          <cell r="B237">
+            <v>1.98E-5</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238">
+            <v>1.0665</v>
+          </cell>
+          <cell r="B238">
+            <v>1.8199999999999999E-5</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239">
+            <v>1.05</v>
+          </cell>
+          <cell r="B239">
+            <v>1.6699999999999999E-5</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="A240">
+            <v>1.0335000000000001</v>
+          </cell>
+          <cell r="B240">
+            <v>1.5299999999999999E-5</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="A241">
+            <v>1.0165</v>
+          </cell>
+          <cell r="B241">
+            <v>1.4E-5</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="A242">
+            <v>1</v>
+          </cell>
+          <cell r="B242">
+            <v>1.2799999999999999E-5</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="A243">
+            <v>0.98350000000000004</v>
+          </cell>
+          <cell r="B243">
+            <v>1.1800000000000001E-5</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="A244">
+            <v>0.96650000000000003</v>
+          </cell>
+          <cell r="B244">
+            <v>1.08E-5</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="A245">
+            <v>0.95</v>
+          </cell>
+          <cell r="B245">
+            <v>1.006E-5</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="A246">
+            <v>0.9335</v>
+          </cell>
+          <cell r="B246">
+            <v>9.2699999999999993E-6</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247">
+            <v>0.91649999999999998</v>
+          </cell>
+          <cell r="B247">
+            <v>8.5499999999999995E-6</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="A248">
+            <v>0.9</v>
+          </cell>
+          <cell r="B248">
+            <v>7.9400000000000002E-6</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249">
+            <v>0.88349999999999995</v>
+          </cell>
+          <cell r="B249">
+            <v>7.4100000000000002E-6</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250">
+            <v>0.86650000000000005</v>
+          </cell>
+          <cell r="B250">
+            <v>6.9399999999999996E-6</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251">
+            <v>0.85</v>
+          </cell>
+          <cell r="B251">
+            <v>6.5599999999999999E-6</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252">
+            <v>0.83350000000000002</v>
+          </cell>
+          <cell r="B252">
+            <v>6.2099999999999998E-6</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253">
+            <v>0.8165</v>
+          </cell>
+          <cell r="B253">
+            <v>5.93E-6</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254">
+            <v>0.8</v>
+          </cell>
+          <cell r="B254">
+            <v>5.6999999999999996E-6</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255">
+            <v>0.78349999999999997</v>
+          </cell>
+          <cell r="B255">
+            <v>5.5199999999999997E-6</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256">
+            <v>0.76649999999999996</v>
+          </cell>
+          <cell r="B256">
+            <v>5.3700000000000003E-6</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="A257">
+            <v>0.75</v>
+          </cell>
+          <cell r="B257">
+            <v>5.2700000000000004E-6</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="A258">
+            <v>0.73350000000000004</v>
+          </cell>
+          <cell r="B258">
+            <v>5.2000000000000002E-6</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="A259">
+            <v>0.71650000000000003</v>
+          </cell>
+          <cell r="B259">
+            <v>5.1399999999999999E-6</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="A260">
+            <v>0.7</v>
+          </cell>
+          <cell r="B260">
+            <v>5.1200000000000001E-6</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="A261">
+            <v>0.6835</v>
+          </cell>
+          <cell r="B261">
+            <v>5.0900000000000004E-6</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="A262">
+            <v>0.66649999999999998</v>
+          </cell>
+          <cell r="B262">
+            <v>5.1000000000000003E-6</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="A263">
+            <v>0.65</v>
+          </cell>
+          <cell r="B263">
+            <v>5.1100000000000002E-6</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="A264">
+            <v>0.63349999999999995</v>
+          </cell>
+          <cell r="B264">
+            <v>5.1200000000000001E-6</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="A265">
+            <v>0.61650000000000005</v>
+          </cell>
+          <cell r="B265">
+            <v>5.1499999999999998E-6</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="A266">
+            <v>0.6</v>
+          </cell>
+          <cell r="B266">
+            <v>5.1699999999999996E-6</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="A267">
+            <v>0.58350000000000002</v>
+          </cell>
+          <cell r="B267">
+            <v>5.2000000000000002E-6</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="A268">
+            <v>0.5665</v>
+          </cell>
+          <cell r="B268">
+            <v>5.2299999999999999E-6</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="A269">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="B269">
+            <v>5.2700000000000004E-6</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="A270">
+            <v>0.53349999999999997</v>
+          </cell>
+          <cell r="B270">
+            <v>5.3000000000000001E-6</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="A271">
+            <v>0.51649999999999996</v>
+          </cell>
+          <cell r="B271">
+            <v>5.3399999999999997E-6</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="A272">
+            <v>0.5</v>
+          </cell>
+          <cell r="B272">
+            <v>5.3700000000000003E-6</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="A273">
+            <v>0.48349999999999999</v>
+          </cell>
+          <cell r="B273">
+            <v>5.4099999999999999E-6</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="A274">
+            <v>0.46650000000000003</v>
+          </cell>
+          <cell r="B274">
+            <v>5.4399999999999996E-6</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="A275">
+            <v>0.45</v>
+          </cell>
+          <cell r="B275">
+            <v>5.4700000000000001E-6</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="A276">
+            <v>0.4335</v>
+          </cell>
+          <cell r="B276">
+            <v>5.4999999999999999E-6</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="A277">
+            <v>0.41649999999999998</v>
+          </cell>
+          <cell r="B277">
+            <v>5.5400000000000003E-6</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="A278">
+            <v>0.4</v>
+          </cell>
+          <cell r="B278">
+            <v>5.5799999999999999E-6</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="A279">
+            <v>0.38350000000000001</v>
+          </cell>
+          <cell r="B279">
+            <v>5.6099999999999997E-6</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="A280">
+            <v>0.36649999999999999</v>
+          </cell>
+          <cell r="B280">
+            <v>5.6400000000000002E-6</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="A281">
+            <v>0.35</v>
+          </cell>
+          <cell r="B281">
+            <v>5.6799999999999998E-6</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="A282">
+            <v>0.33350000000000002</v>
+          </cell>
+          <cell r="B282">
+            <v>5.7200000000000003E-6</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="A283">
+            <v>0.3165</v>
+          </cell>
+          <cell r="B283">
+            <v>5.75E-6</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="A284">
+            <v>0.3</v>
+          </cell>
+          <cell r="B284">
+            <v>5.7899999999999996E-6</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="A285">
+            <v>0.28349999999999997</v>
+          </cell>
+          <cell r="B285">
+            <v>5.8200000000000002E-6</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="A286">
+            <v>0.26650000000000001</v>
+          </cell>
+          <cell r="B286">
+            <v>5.8599999999999998E-6</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="A287">
+            <v>0.25</v>
+          </cell>
+          <cell r="B287">
+            <v>5.8900000000000004E-6</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="A288">
+            <v>0.23350000000000001</v>
+          </cell>
+          <cell r="B288">
+            <v>5.93E-6</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="A289">
+            <v>0.2165</v>
+          </cell>
+          <cell r="B289">
+            <v>5.9599999999999997E-6</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="A290">
+            <v>0.2</v>
+          </cell>
+          <cell r="B290">
+            <v>6.0100000000000001E-6</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="A291">
+            <v>0.1835</v>
+          </cell>
+          <cell r="B291">
+            <v>6.0299999999999999E-6</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="A292">
+            <v>0.16650000000000001</v>
+          </cell>
+          <cell r="B292">
+            <v>6.0800000000000002E-6</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="A293">
+            <v>0.15</v>
+          </cell>
+          <cell r="B293">
+            <v>6.1E-6</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="A294">
+            <v>0.13350000000000001</v>
+          </cell>
+          <cell r="B294">
+            <v>6.1500000000000004E-6</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="A295">
+            <v>0.11650000000000001</v>
+          </cell>
+          <cell r="B295">
+            <v>6.19E-6</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="A296">
+            <v>0.1</v>
+          </cell>
+          <cell r="B296">
+            <v>6.2299999999999996E-6</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="A297">
+            <v>8.3500000000000005E-2</v>
+          </cell>
+          <cell r="B297">
+            <v>6.2600000000000002E-6</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="A298">
+            <v>6.6500000000000004E-2</v>
+          </cell>
+          <cell r="B298">
+            <v>6.2999999999999998E-6</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="A299">
+            <v>0.05</v>
+          </cell>
+          <cell r="B299">
+            <v>6.3400000000000003E-6</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="A300">
+            <v>3.3500000000000002E-2</v>
+          </cell>
+          <cell r="B300">
+            <v>6.37E-6</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="A301">
+            <v>1.6500000000000001E-2</v>
+          </cell>
+          <cell r="B301">
+            <v>6.4200000000000004E-6</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="A302">
+            <v>0</v>
+          </cell>
+          <cell r="B302">
+            <v>6.4500000000000001E-6</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2815,8 +5246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
